--- a/graduale-tex/1_S_08.08--st_dominic-sequence-excel-flats.xlsx
+++ b/graduale-tex/1_S_08.08--st_dominic-sequence-excel-flats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitruvius/Documents/GitHub/atelier/graduale-tex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ACBE71-60A7-E44C-AD0D-5C9FE573D333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72F3B42-CF39-5649-BF67-9B7884D62B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="740" windowWidth="14100" windowHeight="8860" xr2:uid="{E2A91231-8335-374E-BB60-0232BA729EA5}"/>
+    <workbookView xWindow="14860" yWindow="10240" windowWidth="14100" windowHeight="8860" xr2:uid="{E2A91231-8335-374E-BB60-0232BA729EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1704,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E41CABD-6E29-2C47-AD1D-BBE0781CBD4F}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
